--- a/DataGenerator/XLSXS/KeywordData.xlsx
+++ b/DataGenerator/XLSXS/KeywordData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\AngelBeat\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungs\Desktop\AngelBeat\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFEBDE4-6278-4F64-81C3-FCDF94EA94EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CC3802-A065-41F4-B2BB-FAE91BEEFAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="220" windowWidth="17120" windowHeight="9370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillRange" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>이 칼럼부터 공식 세워지면 노티 후 지울 것</t>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
   <si>
     <t>키워드 ID</t>
   </si>
@@ -147,12 +148,6 @@
     <t>eKeyword</t>
   </si>
   <si>
-    <t>Phantom</t>
-  </si>
-  <si>
-    <t>#은신</t>
-  </si>
-  <si>
     <t>Positive</t>
   </si>
   <si>
@@ -162,9 +157,6 @@
     <t>ByDuration</t>
   </si>
   <si>
-    <t>PhantomReprisal</t>
-  </si>
-  <si>
     <t>DefenseDecrease</t>
   </si>
   <si>
@@ -177,23 +169,53 @@
     <t>Stack</t>
   </si>
   <si>
-    <t>Smog</t>
-  </si>
-  <si>
     <t>#연기</t>
   </si>
   <si>
-    <t>ByStackEmpty</t>
-  </si>
-  <si>
     <t>Smoke</t>
+  </si>
+  <si>
+    <t>ParryReady</t>
+  </si>
+  <si>
+    <t>#응수 준비</t>
+  </si>
+  <si>
+    <t>ByCondition</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>SmokeBind</t>
+  </si>
+  <si>
+    <t>#연기 결속</t>
+  </si>
+  <si>
+    <t>Twister</t>
+  </si>
+  <si>
+    <t>#회오리</t>
+  </si>
+  <si>
+    <t>Extend</t>
+  </si>
+  <si>
+    <t>BanMove</t>
+  </si>
+  <si>
+    <t>#이동 불가</t>
+  </si>
+  <si>
+    <t>Neutral</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -204,6 +226,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -212,28 +235,23 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE599"/>
-        <bgColor rgb="FFFFE599"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
-        <bgColor rgb="FFFFD966"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -241,24 +259,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -477,52 +505,59 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.90625" customWidth="1"/>
+    <col min="8" max="8" width="13.90625" customWidth="1"/>
+    <col min="10" max="10" width="16.26953125" customWidth="1"/>
+    <col min="11" max="11" width="15.36328125" customWidth="1"/>
+    <col min="12" max="12" width="16.453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1"/>
@@ -532,44 +567,44 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="N2" s="1"/>
@@ -579,44 +614,44 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="1"/>
+      <c r="M3" s="2"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -624,42 +659,44 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>60010001</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>10201001</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="1"/>
+      <c r="H4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="2"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -667,42 +704,44 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>60010002</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>10201002</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="H5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="1"/>
+      <c r="L5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -710,99 +749,193 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>60010003</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>9</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="1" t="s">
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>10201003</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="J6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="1"/>
+      <c r="M6" s="2"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>10201004</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="1"/>
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>90201001</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="2"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="1"/>
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>90201002</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/DataGenerator/XLSXS/KeywordData.xlsx
+++ b/DataGenerator/XLSXS/KeywordData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungs\Desktop\AngelBeat\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\AngelBeat\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CC3802-A065-41F4-B2BB-FAE91BEEFAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16A618C-676D-4B67-9703-24A2A0D67A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="220" windowWidth="17120" windowHeight="9370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1365" yWindow="3060" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillRange" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t>키워드 ID</t>
   </si>
@@ -182,9 +182,6 @@
   </si>
   <si>
     <t>ByCondition</t>
-  </si>
-  <si>
-    <t>none</t>
   </si>
   <si>
     <t>SmokeBind</t>
@@ -508,19 +505,21 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.90625" customWidth="1"/>
-    <col min="8" max="8" width="13.90625" customWidth="1"/>
-    <col min="10" max="10" width="16.26953125" customWidth="1"/>
-    <col min="11" max="11" width="15.36328125" customWidth="1"/>
-    <col min="12" max="12" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -567,7 +566,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -614,7 +613,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -659,7 +658,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>10201001</v>
       </c>
@@ -684,9 +683,7 @@
       <c r="H4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="I4" s="2"/>
       <c r="J4" s="2" t="b">
         <v>1</v>
       </c>
@@ -704,7 +701,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>10201002</v>
       </c>
@@ -729,9 +726,7 @@
       <c r="H5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="I5" s="2"/>
       <c r="J5" s="2" t="b">
         <v>1</v>
       </c>
@@ -749,15 +744,15 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>10201003</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>39</v>
@@ -774,32 +769,30 @@
       <c r="H6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="L6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>10201004</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>39</v>
@@ -811,40 +804,38 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="I7" s="2"/>
       <c r="J7" s="2" t="b">
         <v>1</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>90201001</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="E8" s="2" t="b">
         <v>0</v>
@@ -858,24 +849,22 @@
       <c r="H8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="I8" s="2"/>
       <c r="J8" s="2" t="b">
         <v>1</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>90201002</v>
       </c>
@@ -900,9 +889,7 @@
       <c r="H9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="2" t="b">
         <v>1</v>
       </c>
@@ -917,7 +904,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -927,14 +914,12 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
     </row>
   </sheetData>
